--- a/static/data/prices.xlsx
+++ b/static/data/prices.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sale" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hire" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bands" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -449,10 +450,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -534,6 +535,114 @@
       </c>
       <c r="D4" s="2" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>TG330</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Quansheng TG330 radio</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>TG330</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Quansheng TG330 radio</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>TG330</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Quansheng TG330 radio</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>A66</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Amherst A66 radio</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>A66</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Amherst A66 radio</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>A66</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Amherst A66 radio</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -549,10 +658,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -594,7 +703,7 @@
     <row r="2" ht="15" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -615,7 +724,7 @@
     <row r="3" ht="15" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -636,7 +745,7 @@
     <row r="4" ht="15" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -657,7 +766,7 @@
     <row r="5" ht="15" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -678,7 +787,7 @@
     <row r="6" ht="15" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -699,7 +808,7 @@
     <row r="7" ht="15" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -720,7 +829,7 @@
     <row r="8" ht="15" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -741,7 +850,7 @@
     <row r="9" ht="15" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -762,7 +871,7 @@
     <row r="10" ht="15" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -783,7 +892,7 @@
     <row r="11" ht="15" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -804,7 +913,7 @@
     <row r="12" ht="15" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -825,7 +934,7 @@
     <row r="13" ht="15" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -846,7 +955,7 @@
     <row r="14" ht="15" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -867,7 +976,7 @@
     <row r="15" ht="15" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -888,7 +997,7 @@
     <row r="16" ht="15" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -909,7 +1018,7 @@
     <row r="17" ht="15" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1177,6 +1286,90 @@
       </c>
       <c r="E29" s="2" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="3">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>base and car radios</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="3">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Mega</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Megaphones</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="3">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Wand</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Security Wands</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="3">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Repeater</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Repeater</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1184,4 +1377,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Band</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Cases</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Icom</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Batteries</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>EMC</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Accessory B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Headset</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Accessory B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Megaphone</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Mega</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Parrot</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Repeater</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Repeater</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Wand</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Wand</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Accessory C</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="3"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/static/data/prices.xlsx
+++ b/static/data/prices.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sale" sheetId="1" state="visible" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A2:A17 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -660,8 +660,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -703,7 +703,7 @@
     <row r="2" ht="15" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="3" ht="15" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="4" ht="15" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="5" ht="15" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="6" ht="15" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="7" ht="15" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -829,7 +829,7 @@
     <row r="8" ht="15" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -850,7 +850,7 @@
     <row r="9" ht="15" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
     <row r="10" ht="15" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="11" ht="15" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -913,7 +913,7 @@
     <row r="12" ht="15" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="13" ht="15" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
     <row r="14" ht="15" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="15" ht="15" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
     <row r="16" ht="15" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="17" ht="15" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="3">
+    <row r="30" ht="13.5" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Mobile</t>
@@ -1309,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="3">
+    <row r="31" ht="13.5" customHeight="1" s="3">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Mega</t>
@@ -1387,13 +1387,13 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="A2:A17 C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="3">
+    <row r="1" ht="12.75" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="3">
+    <row r="2" ht="12.75" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>EM</t>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
+    <row r="3" ht="13.5" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>UHF</t>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
+    <row r="4" ht="13.5" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Cases</t>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="3">
+    <row r="5" ht="12.75" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Icom</t>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="3">
+    <row r="6" ht="13.5" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Batteries</t>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="3">
+    <row r="7" ht="13.5" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>EMC</t>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="3">
+    <row r="8" ht="13.5" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Headset</t>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="3">
+    <row r="9" ht="12.75" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Megaphone</t>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="3">
+    <row r="10" ht="13.5" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Parrot</t>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="3">
+    <row r="11" ht="12.75" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Repeater</t>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="3">
+    <row r="12" ht="12.75" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Wand</t>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="3">
+    <row r="13" ht="13.5" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
+    <row r="14" ht="13.5" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/static/data/prices.xlsx
+++ b/static/data/prices.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A2:A17 B17"/>
@@ -479,6 +479,11 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>Min Duration</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Price</t>
         </is>
       </c>
@@ -486,163 +491,801 @@
     <row r="2" ht="15" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Hytera 405</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Hytera 405 digital radio</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>150</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Hytera 405</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Hytera 405 digital radio</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>140</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Hytera 405</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Hytera 405 digital radio</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>100</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>TG330</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Quansheng TG330 radio</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>79</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>TG330</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Quansheng TG330 radio</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>74</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>TG330</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Quansheng TG330 radio</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>69</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>A66</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Amherst A66 radio</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>39</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>A66</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Amherst A66 radio</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>34</v>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>A66</t>
+          <t>UHF</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Amherst A66 radio</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>29</v>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Hytera PD 705 Digital Radio</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Dtypes, Parrots, Leather, Battery</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Dtypes, Parrots, Leather, Battery</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Dtypes, Parrots, Leather, Battery</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Accessory A</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Dtypes, Parrots, Leather, Battery</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Accessory B</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Covert, Headset</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Accessory B</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Covert, Headset</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Accessory B</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Covert, Headset</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Accessory B</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Covert, Headset</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Accessory C</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Accessory C</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Accessory C</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Accessory C</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>base and car radios</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Mega</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Megaphones</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Wand</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Security Wands</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Repeater</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Repeater</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +1334,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Min Duration</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -703,19 +1346,21 @@
     <row r="2" ht="15" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Hytera 405</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
+          <t>Hytera 405 digital radio</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -724,19 +1369,21 @@
     <row r="3" ht="15" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Hytera 405</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
+          <t>Hytera 405 digital radio</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>16</v>
@@ -745,19 +1392,21 @@
     <row r="4" ht="15" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>Hytera 405</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
+          <t>Hytera 405 digital radio</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>20</v>
@@ -766,19 +1415,21 @@
     <row r="5" ht="15" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>TG330</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
+          <t>Quansheng TG330 radio</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>25</v>
@@ -787,19 +1438,21 @@
     <row r="6" ht="15" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>TG330</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>10</v>
+          <t>Quansheng TG330 radio</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>11</v>
@@ -808,19 +1461,21 @@
     <row r="7" ht="15" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>TG330</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>10</v>
+          <t>Quansheng TG330 radio</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>14</v>
@@ -829,19 +1484,21 @@
     <row r="8" ht="15" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>A66</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>10</v>
+          <t>Amherst A66 radio</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>19</v>
@@ -850,19 +1507,21 @@
     <row r="9" ht="15" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>A66</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>10</v>
+          <t>Amherst A66 radio</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>23</v>
@@ -871,19 +1530,21 @@
     <row r="10" ht="15" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>UHF</t>
+          <t>A66</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Hytera PD 705 Digital Radio</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>20</v>
+          <t>Amherst A66 radio</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>9</v>
@@ -900,11 +1561,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -921,11 +1586,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>3</v>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E12" s="2" t="n">
         <v>17</v>
@@ -942,11 +1611,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>4</v>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E13" s="2" t="n">
         <v>21</v>
@@ -963,11 +1636,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E14" s="2" t="n">
         <v>7</v>
@@ -984,11 +1661,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E15" s="2" t="n">
         <v>10</v>
@@ -1005,11 +1686,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>3</v>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E16" s="2" t="n">
         <v>16</v>
@@ -1026,11 +1711,15 @@
           <t>Hytera PD 705 Digital Radio</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>4</v>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E17" s="2" t="n">
         <v>20</v>
@@ -1047,11 +1736,15 @@
           <t>Dtypes, Parrots, Leather, Battery</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
@@ -1068,11 +1761,15 @@
           <t>Dtypes, Parrots, Leather, Battery</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E19" s="2" t="n">
         <v>1.5</v>
@@ -1089,11 +1786,15 @@
           <t>Dtypes, Parrots, Leather, Battery</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>3</v>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E20" s="2" t="n">
         <v>2</v>
@@ -1110,11 +1811,15 @@
           <t>Dtypes, Parrots, Leather, Battery</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>4</v>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E21" s="2" t="n">
         <v>2.5</v>
@@ -1131,11 +1836,15 @@
           <t>Covert, Headset</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E22" s="2" t="n">
         <v>2</v>
@@ -1152,11 +1861,15 @@
           <t>Covert, Headset</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>2</v>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E23" s="2" t="n">
         <v>3</v>
@@ -1173,11 +1886,15 @@
           <t>Covert, Headset</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E24" s="2" t="n">
         <v>4</v>
@@ -1194,11 +1911,15 @@
           <t>Covert, Headset</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>4</v>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E25" s="2" t="n">
         <v>5</v>
@@ -1215,11 +1936,15 @@
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>1</v>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E26" s="2" t="n">
         <v>5</v>
@@ -1236,11 +1961,15 @@
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E27" s="2" t="n">
         <v>8</v>
@@ -1257,11 +1986,15 @@
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>3</v>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E28" s="2" t="n">
         <v>11</v>
@@ -1278,11 +2011,15 @@
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>4</v>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E29" s="2" t="n">
         <v>14</v>
@@ -1299,11 +2036,15 @@
           <t>base and car radios</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E30" s="2" t="n">
         <v>15</v>
@@ -1320,11 +2061,15 @@
           <t>Megaphones</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E31" s="2" t="n">
         <v>5</v>
@@ -1341,11 +2086,15 @@
           <t>Security Wands</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1</v>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E32" s="2" t="n">
         <v>5</v>
@@ -1362,11 +2111,15 @@
           <t>Repeater</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E33" s="2" t="n">
         <v>50</v>
